--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H2">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N2">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q2">
-        <v>22.75523590580132</v>
+        <v>1.725974368611111</v>
       </c>
       <c r="R2">
-        <v>22.75523590580132</v>
+        <v>15.5337693175</v>
       </c>
       <c r="S2">
-        <v>0.6761008569340645</v>
+        <v>0.03608569958709815</v>
       </c>
       <c r="T2">
-        <v>0.6761008569340645</v>
+        <v>0.03608569958709816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H3">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N3">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q3">
-        <v>3.980053470576702</v>
+        <v>0.2774957909444444</v>
       </c>
       <c r="R3">
-        <v>3.980053470576702</v>
+        <v>2.4974621185</v>
       </c>
       <c r="S3">
-        <v>0.1182548743172674</v>
+        <v>0.005801725640203664</v>
       </c>
       <c r="T3">
-        <v>0.1182548743172674</v>
+        <v>0.005801725640203664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H4">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N4">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q4">
-        <v>0.05345697114450976</v>
+        <v>0.003944131055555557</v>
       </c>
       <c r="R4">
-        <v>0.05345697114450976</v>
+        <v>0.03549717950000001</v>
       </c>
       <c r="S4">
-        <v>0.001588307154868402</v>
+        <v>8.24616697624845E-05</v>
       </c>
       <c r="T4">
-        <v>0.001588307154868402</v>
+        <v>8.246166976248451E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H5">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I5">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J5">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N5">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q5">
-        <v>3.625045609375437</v>
+        <v>0.6123129755555556</v>
       </c>
       <c r="R5">
-        <v>3.625045609375437</v>
+        <v>5.510816780000001</v>
       </c>
       <c r="S5">
-        <v>0.1077069230602421</v>
+        <v>0.01280189468106665</v>
       </c>
       <c r="T5">
-        <v>0.1077069230602421</v>
+        <v>0.01280189468106665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H6">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N6">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q6">
-        <v>2.42620789953053</v>
+        <v>25.66733018785445</v>
       </c>
       <c r="R6">
-        <v>2.42620789953053</v>
+        <v>231.00597169069</v>
       </c>
       <c r="S6">
-        <v>0.07208719992019891</v>
+        <v>0.5366380771384813</v>
       </c>
       <c r="T6">
-        <v>0.07208719992019891</v>
+        <v>0.5366380771384814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H7">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N7">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q7">
-        <v>0.4243611101568602</v>
+        <v>4.126698647119778</v>
       </c>
       <c r="R7">
-        <v>0.4243611101568602</v>
+        <v>37.14028782407799</v>
       </c>
       <c r="S7">
-        <v>0.01260856672346771</v>
+        <v>0.08627869009797647</v>
       </c>
       <c r="T7">
-        <v>0.01260856672346771</v>
+        <v>0.08627869009797647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H8">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I8">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J8">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N8">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q8">
-        <v>0.005699687149484548</v>
+        <v>0.05865400781622224</v>
       </c>
       <c r="R8">
-        <v>0.005699687149484548</v>
+        <v>0.5278860703460001</v>
       </c>
       <c r="S8">
-        <v>0.0001693484252140903</v>
+        <v>0.001226304946427857</v>
       </c>
       <c r="T8">
-        <v>0.0001693484252140903</v>
+        <v>0.001226304946427857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3395593333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.018678</v>
+      </c>
+      <c r="I9">
+        <v>0.8145227578751427</v>
+      </c>
+      <c r="J9">
+        <v>0.8145227578751428</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.81662666666667</v>
+      </c>
+      <c r="N9">
+        <v>80.44988000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="P9">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="Q9">
+        <v>9.105835873182222</v>
+      </c>
+      <c r="R9">
+        <v>81.95252285864001</v>
+      </c>
+      <c r="S9">
+        <v>0.1903796856922571</v>
+      </c>
+      <c r="T9">
+        <v>0.1903796856922571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.163466</v>
+      </c>
+      <c r="I10">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J10">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>75.59011833333334</v>
+      </c>
+      <c r="N10">
+        <v>226.770355</v>
+      </c>
+      <c r="O10">
+        <v>0.6588374259037486</v>
+      </c>
+      <c r="P10">
+        <v>0.6588374259037486</v>
+      </c>
+      <c r="Q10">
+        <v>4.118804761158889</v>
+      </c>
+      <c r="R10">
+        <v>37.06924285043</v>
+      </c>
+      <c r="S10">
+        <v>0.08611364917816915</v>
+      </c>
+      <c r="T10">
+        <v>0.08611364917816916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="H9">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="I9">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="J9">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.0586947926819</v>
-      </c>
-      <c r="N9">
-        <v>11.0586947926819</v>
-      </c>
-      <c r="O9">
-        <v>0.1191908465249188</v>
-      </c>
-      <c r="P9">
-        <v>0.1191908465249188</v>
-      </c>
-      <c r="Q9">
-        <v>0.3865094754470501</v>
-      </c>
-      <c r="R9">
-        <v>0.3865094754470501</v>
-      </c>
-      <c r="S9">
-        <v>0.01148392346467673</v>
-      </c>
-      <c r="T9">
-        <v>0.01148392346467673</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.163466</v>
+      </c>
+      <c r="I11">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J11">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.15310033333333</v>
+      </c>
+      <c r="N11">
+        <v>36.459301</v>
+      </c>
+      <c r="O11">
+        <v>0.1059254505338229</v>
+      </c>
+      <c r="P11">
+        <v>0.1059254505338229</v>
+      </c>
+      <c r="Q11">
+        <v>0.6622062330295555</v>
+      </c>
+      <c r="R11">
+        <v>5.959856097265999</v>
+      </c>
+      <c r="S11">
+        <v>0.0138450347956428</v>
+      </c>
+      <c r="T11">
+        <v>0.01384503479564281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.163466</v>
+      </c>
+      <c r="I12">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J12">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1727356666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.5182070000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.001505550255743542</v>
+      </c>
+      <c r="P12">
+        <v>0.001505550255743542</v>
+      </c>
+      <c r="Q12">
+        <v>0.009412136162444447</v>
+      </c>
+      <c r="R12">
+        <v>0.08470922546200002</v>
+      </c>
+      <c r="S12">
+        <v>0.0001967836395532013</v>
+      </c>
+      <c r="T12">
+        <v>0.0001967836395532014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.163466</v>
+      </c>
+      <c r="I13">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J13">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.81662666666667</v>
+      </c>
+      <c r="N13">
+        <v>80.44988000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="P13">
+        <v>0.233731573306685</v>
+      </c>
+      <c r="Q13">
+        <v>1.461202231564444</v>
+      </c>
+      <c r="R13">
+        <v>13.15082008408</v>
+      </c>
+      <c r="S13">
+        <v>0.03054999293336118</v>
+      </c>
+      <c r="T13">
+        <v>0.03054999293336119</v>
       </c>
     </row>
   </sheetData>
